--- a/Requirements Traceability Matrix.xlsx
+++ b/Requirements Traceability Matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Answers can be checked and feedbacked by the teacher</t>
   </si>
   <si>
-    <t>Control over font and display - size, color, underline, bold</t>
-  </si>
-  <si>
     <t>New pupils users could be added to system</t>
   </si>
   <si>
@@ -228,24 +225,12 @@
     <t>Details about a teacher can be viewed by their pupils</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Connector words only</t>
-  </si>
-  <si>
-    <t>UI only</t>
-  </si>
-  <si>
-    <t>no color</t>
-  </si>
-  <si>
     <t>14/04/2017</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
     <t>20/01/2017</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>23/05/2017</t>
   </si>
   <si>
@@ -397,17 +379,23 @@
   </si>
   <si>
     <t>SS5-7,TR3,DER2</t>
+  </si>
+  <si>
+    <t>Partially Done</t>
+  </si>
+  <si>
+    <t>Control over font and display - size, underline, bold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -415,7 +403,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -423,13 +411,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,19 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +438,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +474,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -512,17 +494,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,24 +847,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -905,21 +887,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -931,28 +913,28 @@
         <v>42686</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
@@ -961,17 +943,17 @@
         <v>42686</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>70</v>
+      <c r="G3" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -983,17 +965,17 @@
         <v>42686</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>70</v>
+      <c r="G4" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" thickTop="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -1005,25 +987,25 @@
         <v>42686</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1035,20 +1017,20 @@
         <v>42686</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1067,12 +1049,12 @@
       <c r="F7" s="4">
         <v>43011</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>72</v>
+      <c r="G7" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1091,12 +1073,12 @@
       <c r="F8" s="4">
         <v>43011</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>72</v>
+      <c r="G8" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1115,12 +1097,12 @@
       <c r="F9" s="4">
         <v>43011</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>72</v>
+      <c r="G9" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1137,14 +1119,14 @@
         <v>42686</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="G10" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1160,20 +1142,20 @@
       <c r="E11" s="4">
         <v>42686</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4">
+        <v>43075</v>
+      </c>
       <c r="G11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -1184,23 +1166,23 @@
       <c r="E12" s="4">
         <v>42686</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4">
+        <v>43075</v>
+      </c>
       <c r="G12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1209,12 +1191,12 @@
         <v>42686</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="6" t="s">
-        <v>70</v>
+      <c r="G13" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1222,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -1231,12 +1213,12 @@
         <v>42686</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="9" t="s">
-        <v>88</v>
+      <c r="G14" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1244,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -1253,12 +1235,12 @@
         <v>42686</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="9" t="s">
-        <v>88</v>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1266,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -1275,12 +1257,12 @@
         <v>42686</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="6" t="s">
-        <v>70</v>
+      <c r="G16" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1288,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -1297,17 +1279,17 @@
         <v>42686</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="9" t="s">
-        <v>88</v>
+      <c r="G17" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1319,14 +1301,14 @@
         <v>42686</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1334,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -1343,12 +1325,12 @@
         <v>42686</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="6" t="s">
-        <v>70</v>
+      <c r="G19" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" thickTop="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1365,20 +1347,20 @@
         <v>42686</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1395,20 +1377,20 @@
         <v>42686</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="7" t="s">
         <v>72</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1425,20 +1407,20 @@
         <v>42686</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="7" t="s">
         <v>72</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1455,12 +1437,12 @@
         <v>42686</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1477,12 +1459,12 @@
         <v>42686</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1499,12 +1481,12 @@
         <v>42686</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1521,20 +1503,20 @@
         <v>42686</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1542,7 +1524,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
@@ -1551,18 +1533,18 @@
         <v>42686</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1570,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
@@ -1579,18 +1561,18 @@
         <v>42686</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickTop="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1607,20 +1589,20 @@
         <v>42686</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1628,7 +1610,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -1636,19 +1618,21 @@
       <c r="E30" s="4">
         <v>42686</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="8" t="s">
-        <v>82</v>
+      <c r="F30" s="4">
+        <v>43075</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1656,7 +1640,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
@@ -1664,19 +1648,21 @@
       <c r="E31" s="4">
         <v>42686</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="8" t="s">
-        <v>82</v>
+      <c r="F31" s="4">
+        <v>43075</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1693,20 +1679,20 @@
         <v>42686</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1714,7 +1700,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -1722,19 +1708,21 @@
       <c r="E33" s="4">
         <v>42686</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="8" t="s">
-        <v>82</v>
+      <c r="F33" s="4">
+        <v>43075</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1742,7 +1730,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -1750,19 +1738,21 @@
       <c r="E34" s="4">
         <v>42686</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="8" t="s">
-        <v>82</v>
+      <c r="F34" s="4">
+        <v>43075</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1770,7 +1760,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3">
         <v>3</v>
@@ -1779,12 +1769,12 @@
         <v>42686</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="6" t="s">
-        <v>70</v>
+      <c r="G35" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" thickTop="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1801,25 +1791,25 @@
         <v>42686</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
@@ -1831,21 +1821,19 @@
         <v>42686</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -1857,25 +1845,25 @@
         <v>42686</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -1887,25 +1875,25 @@
         <v>42686</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
@@ -1917,25 +1905,25 @@
         <v>42686</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
@@ -1947,25 +1935,25 @@
         <v>42686</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -1977,25 +1965,25 @@
         <v>42686</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" t="s">
-        <v>106</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="3">
         <v>4</v>
@@ -2007,25 +1995,25 @@
         <v>42686</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3">
         <v>5</v>
@@ -2037,19 +2025,19 @@
         <v>42686</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3">
         <v>4</v>
@@ -2061,19 +2049,19 @@
         <v>42686</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -2085,19 +2073,19 @@
         <v>42686</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3">
         <v>4</v>
@@ -2109,19 +2097,19 @@
         <v>42686</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
@@ -2135,25 +2123,23 @@
       <c r="F48" s="4">
         <v>42891</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="G48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="3"/>
       <c r="I48" t="s">
-        <v>87</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3">
         <v>4</v>
@@ -2167,23 +2153,23 @@
       <c r="F49" s="4">
         <v>42891</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>72</v>
+      <c r="G49" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" t="s">
-        <v>109</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3">
         <v>5</v>
@@ -2195,25 +2181,25 @@
         <v>42687</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="3">
         <v>5</v>
@@ -2225,25 +2211,25 @@
         <v>42687</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" t="s">
-        <v>116</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="3">
         <v>4</v>
@@ -2255,25 +2241,25 @@
         <v>42687</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" t="s">
-        <v>111</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3">
         <v>4</v>
@@ -2284,23 +2270,23 @@
       <c r="E53" s="4">
         <v>42687</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>78</v>
+      <c r="G53" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" t="s">
-        <v>112</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
         <v>5</v>
@@ -2311,23 +2297,26 @@
       <c r="E54" s="4">
         <v>42687</v>
       </c>
+      <c r="F54" s="4">
+        <v>43075</v>
+      </c>
       <c r="G54" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" t="s">
-        <v>113</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
@@ -2338,23 +2327,26 @@
       <c r="E55" s="4">
         <v>42687</v>
       </c>
+      <c r="F55" s="4">
+        <v>43075</v>
+      </c>
       <c r="G55" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" t="s">
-        <v>114</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="3">
         <v>4</v>
@@ -2365,23 +2357,26 @@
       <c r="E56" s="4">
         <v>42687</v>
       </c>
+      <c r="F56" s="4">
+        <v>43075</v>
+      </c>
       <c r="G56" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" t="s">
-        <v>115</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
@@ -2392,17 +2387,20 @@
       <c r="E57" s="4">
         <v>42687</v>
       </c>
+      <c r="F57" s="4">
+        <v>43075</v>
+      </c>
       <c r="G57" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="3">
         <v>5</v>
@@ -2413,23 +2411,26 @@
       <c r="E58" s="4">
         <v>42690</v>
       </c>
+      <c r="F58" s="4">
+        <v>43075</v>
+      </c>
       <c r="G58" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" t="s">
-        <v>122</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="3">
         <v>5</v>
@@ -2440,23 +2441,26 @@
       <c r="E59" s="4">
         <v>42690</v>
       </c>
+      <c r="F59" s="4">
+        <v>43075</v>
+      </c>
       <c r="G59" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3">
         <v>5</v>
@@ -2467,23 +2471,26 @@
       <c r="E60" s="4">
         <v>42690</v>
       </c>
+      <c r="F60" s="4">
+        <v>43075</v>
+      </c>
       <c r="G60" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" t="s">
-        <v>124</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -2495,22 +2502,22 @@
         <v>42703</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3">
         <v>2</v>
@@ -2518,20 +2525,20 @@
       <c r="E62" s="4">
         <v>42703</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>70</v>
+      <c r="G62" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3">
         <v>2</v>
@@ -2539,20 +2546,20 @@
       <c r="E63" s="4">
         <v>42703</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>70</v>
+      <c r="G63" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3">
         <v>2</v>
@@ -2560,17 +2567,17 @@
       <c r="E64" s="4">
         <v>42703</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>70</v>
+      <c r="G64" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="15.75" thickTop="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -2581,23 +2588,26 @@
       <c r="E65" s="4">
         <v>42690</v>
       </c>
+      <c r="F65" s="4">
+        <v>43075</v>
+      </c>
       <c r="G65" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" t="s">
-        <v>125</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -2609,29 +2619,29 @@
         <v>42690</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" t="s">
-        <v>126</v>
-      </c>
-      <c r="J66" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -2648,7 +2658,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2660,7 +2670,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
